--- a/AssignmentsList.xlsx
+++ b/AssignmentsList.xlsx
@@ -16,27 +16,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
-  <si>
-    <t>Different global object</t>
-  </si>
-  <si>
-    <t>Hoisting in JavaScript</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>done</t>
   </si>
   <si>
-    <t>Function Statement And Function Expression</t>
-  </si>
-  <si>
-    <t>double Equals(==) and triple equls(===) in js</t>
-  </si>
-  <si>
-    <t>how to create object literal in javaScript</t>
-  </si>
-  <si>
-    <t>JSON</t>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Assignment</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Implement a class for count constructor,methods</t>
+  </si>
+  <si>
+    <t>Annotation</t>
+  </si>
+  <si>
+    <t>create Annotation on your own</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create html file in build resume </t>
+  </si>
+  <si>
+    <t>Read 14 chapter and create class of read and write file</t>
+  </si>
+  <si>
+    <t>create your own custom exception and thrown exception</t>
+  </si>
+  <si>
+    <t>create object of serialization</t>
+  </si>
+  <si>
+    <t>implement interface and implement inheritance and interface</t>
+  </si>
+  <si>
+    <t>student-app</t>
+  </si>
+  <si>
+    <t>implement abstract class .</t>
+  </si>
+  <si>
+    <t>create CRUD in map,set,list</t>
+  </si>
+  <si>
+    <t>Rick's Guitar App</t>
+  </si>
+  <si>
+    <t>Iterate list,set,map using Iterator .</t>
+  </si>
+  <si>
+    <t>Implement Junit test for class calculator</t>
+  </si>
+  <si>
+    <t>exception-app</t>
+  </si>
+  <si>
+    <t>studentset-app</t>
+  </si>
+  <si>
+    <t>employee-app</t>
+  </si>
+  <si>
+    <t>citycode-app</t>
+  </si>
+  <si>
+    <t>create propertyFile</t>
+  </si>
+  <si>
+    <t>numberchoser game</t>
+  </si>
+  <si>
+    <t>UUID/GUID</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>designpattern-app</t>
+  </si>
+  <si>
+    <t>tictactoe-app</t>
+  </si>
+  <si>
+    <t>customLinkedList-app</t>
   </si>
 </sst>
 </file>
@@ -369,84 +435,240 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="73.7109375" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>43115</v>
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>43115</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>43115</v>
+      <c r="A3" s="1"/>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
-        <v>43115</v>
+      <c r="B4" t="s">
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>43115</v>
+      <c r="B5" t="s">
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
-        <v>43115</v>
+      <c r="B6" t="s">
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="D27" s="1"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AssignmentsList.xlsx
+++ b/AssignmentsList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>done</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>customLinkedList-app</t>
+  </si>
+  <si>
+    <t>Organization Hierarchy</t>
+  </si>
+  <si>
+    <t>Html DOM Hierarchy</t>
   </si>
 </sst>
 </file>
@@ -438,7 +444,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -653,7 +659,21 @@
       </c>
     </row>
     <row r="27" spans="2:4">
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
       <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="1"/>
